--- a/src/test/resources/plan_de_pruebas/plan_de_pruebas_practica_final.xlsx
+++ b/src/test/resources/plan_de_pruebas/plan_de_pruebas_practica_final.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\candi\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B85746-E654-439A-85A5-79F6E8712878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954E902D-8E9B-445B-AA7D-B44D69AF0142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FB78C3BD-B29C-4CD2-81F7-7CFC0E94A81C}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{FB78C3BD-B29C-4CD2-81F7-7CFC0E94A81C}"/>
   </bookViews>
   <sheets>
     <sheet name="Registro" sheetId="5" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
     <sheet name="Añadir productos al carrito" sheetId="3" r:id="rId3"/>
     <sheet name="Checkout" sheetId="4" r:id="rId4"/>
+    <sheet name="Logout" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="121">
   <si>
     <t>Prueba</t>
   </si>
@@ -390,6 +391,15 @@
   </si>
   <si>
     <t>Prueba 33</t>
+  </si>
+  <si>
+    <t>Prueba 34</t>
+  </si>
+  <si>
+    <t>Pulsar el botón logout</t>
+  </si>
+  <si>
+    <t>El usuario se desloga correctamente.</t>
   </si>
 </sst>
 </file>
@@ -702,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -710,96 +720,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -812,34 +750,106 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -848,6 +858,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -857,8 +880,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF99"/>
       <color rgb="FFFF6565"/>
-      <color rgb="FFFFFF99"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFFF9F9F"/>
       <color rgb="FFFF0000"/>
@@ -1175,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1080DE40-1A62-4D5E-99EC-EF485A764F0C}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1195,12 +1218,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="15" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1221,392 +1244,394 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="27" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="27" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="27"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="24"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="38" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="39"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="21"/>
-      <c r="B13" s="33" t="s">
+      <c r="A13" s="41"/>
+      <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="23"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="40"/>
     </row>
     <row r="14" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="38" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34"/>
-      <c r="B15" s="30" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="39"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="27"/>
-      <c r="B16" s="33" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="23"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="40"/>
     </row>
     <row r="17" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="38" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30" t="s">
+      <c r="A18" s="34"/>
+      <c r="B18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="39"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="21"/>
-      <c r="B19" s="33" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="23"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="40"/>
     </row>
     <row r="20" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="38" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="34"/>
-      <c r="B21" s="30" t="s">
+      <c r="A21" s="25"/>
+      <c r="B21" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="39"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="27"/>
-      <c r="B22" s="33" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="40"/>
     </row>
     <row r="23" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="38" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="29"/>
-      <c r="B24" s="30" t="s">
+      <c r="A24" s="34"/>
+      <c r="B24" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="39"/>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="29"/>
-      <c r="B25" s="35" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="32"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="39"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="45" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="36"/>
+      <c r="B27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="46"/>
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="37"/>
+      <c r="B28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="47"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="45" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="36"/>
+      <c r="B30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="46"/>
     </row>
     <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14" t="s">
+      <c r="A31" s="37"/>
+      <c r="B31" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="47"/>
     </row>
     <row r="32" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="38" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="34"/>
-      <c r="B33" s="30" t="s">
+      <c r="A33" s="25"/>
+      <c r="B33" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="27"/>
-      <c r="B34" s="33" t="s">
+      <c r="A34" s="26"/>
+      <c r="B34" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="45" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10" t="s">
+      <c r="A36" s="36"/>
+      <c r="B36" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="46"/>
     </row>
     <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14" t="s">
+      <c r="A37" s="37"/>
+      <c r="B37" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="47"/>
     </row>
     <row r="38" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="38" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="34"/>
-      <c r="B39" s="30" t="s">
+      <c r="A39" s="25"/>
+      <c r="B39" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="32"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="39"/>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="27"/>
-      <c r="B40" s="33" t="s">
+      <c r="A40" s="26"/>
+      <c r="B40" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="23"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="40"/>
     </row>
     <row r="41" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="38" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="34"/>
-      <c r="B42" s="30" t="s">
+      <c r="A42" s="25"/>
+      <c r="B42" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="32"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="39"/>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="27"/>
-      <c r="B43" s="33" t="s">
+      <c r="A43" s="26"/>
+      <c r="B43" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="23"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A29:A31"/>
@@ -1622,19 +1647,17 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A26:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1647,7 +1670,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B9" sqref="B9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1666,12 +1689,12 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="15" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1691,126 +1714,120 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="48" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="21"/>
-      <c r="B8" s="42" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="43"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="49"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="48" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="27"/>
-      <c r="B10" s="42" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="49"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="52" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="21"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="46"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="53"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="52" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="27"/>
-      <c r="B14" s="47" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="46"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="53"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="48" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="50"/>
-      <c r="B16" s="42" t="s">
+      <c r="A16" s="51"/>
+      <c r="B16" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="43"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="49"/>
     </row>
     <row r="27" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
@@ -1820,6 +1837,12 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1831,7 +1854,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D12"/>
+      <selection activeCell="B7" sqref="B7:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1850,12 +1873,12 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="15" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1875,94 +1898,94 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="28" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="51"/>
-      <c r="B8" s="30" t="s">
+      <c r="A8" s="54"/>
+      <c r="B8" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="50"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="51"/>
+      <c r="B9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="51"/>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="54"/>
+      <c r="B11" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="50"/>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="39" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="51"/>
-      <c r="B14" s="45" t="s">
+      <c r="A14" s="54"/>
+      <c r="B14" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="50"/>
-      <c r="B15" s="42" t="s">
+      <c r="A15" s="51"/>
+      <c r="B15" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1987,7 +2010,7 @@
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C13"/>
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2006,12 +2029,12 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="15" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2031,503 +2054,523 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="27" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="34"/>
-      <c r="B8" s="30" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="34"/>
-      <c r="B9" s="30" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="34"/>
-      <c r="B10" s="30" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="34"/>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="34"/>
-      <c r="B12" s="30" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="27"/>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="45" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="56"/>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="56"/>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="57"/>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="38" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30" t="s">
+      <c r="A19" s="34"/>
+      <c r="B19" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30" t="s">
+      <c r="A20" s="34"/>
+      <c r="B20" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="41"/>
+      <c r="B21" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="38" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30" t="s">
+      <c r="A23" s="34"/>
+      <c r="B23" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="29"/>
-      <c r="B24" s="30" t="s">
+      <c r="A24" s="34"/>
+      <c r="B24" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="41"/>
+      <c r="B25" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="38" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30" t="s">
+      <c r="A27" s="34"/>
+      <c r="B27" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30" t="s">
+      <c r="A28" s="34"/>
+      <c r="B28" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22" t="s">
+      <c r="A29" s="41"/>
+      <c r="B29" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="38" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30" t="s">
+      <c r="A31" s="34"/>
+      <c r="B31" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30" t="s">
+      <c r="A32" s="34"/>
+      <c r="B32" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
     </row>
     <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="21"/>
-      <c r="B33" s="22" t="s">
+      <c r="A33" s="41"/>
+      <c r="B33" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="38" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="29"/>
-      <c r="B35" s="30" t="s">
+      <c r="A35" s="34"/>
+      <c r="B35" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="29"/>
-      <c r="B36" s="30" t="s">
+      <c r="A36" s="34"/>
+      <c r="B36" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
     </row>
     <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="21"/>
-      <c r="B37" s="22" t="s">
+      <c r="A37" s="41"/>
+      <c r="B37" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="38" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="29"/>
-      <c r="B39" s="30" t="s">
+      <c r="A39" s="34"/>
+      <c r="B39" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="29"/>
-      <c r="B40" s="30" t="s">
+      <c r="A40" s="34"/>
+      <c r="B40" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
     </row>
     <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="21"/>
-      <c r="B41" s="22" t="s">
+      <c r="A41" s="41"/>
+      <c r="B41" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="30" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10" t="s">
+      <c r="A43" s="36"/>
+      <c r="B43" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="9"/>
-      <c r="B44" s="10" t="s">
+      <c r="A44" s="36"/>
+      <c r="B44" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
     </row>
     <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="13"/>
-      <c r="B45" s="54" t="s">
+      <c r="A45" s="37"/>
+      <c r="B45" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="52" t="s">
+      <c r="B46" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="38" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="29"/>
-      <c r="B47" s="30" t="s">
+      <c r="A47" s="34"/>
+      <c r="B47" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="29"/>
-      <c r="B48" s="30" t="s">
+      <c r="A48" s="34"/>
+      <c r="B48" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
     </row>
     <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="21"/>
-      <c r="B49" s="22" t="s">
+      <c r="A49" s="41"/>
+      <c r="B49" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="38" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="29"/>
-      <c r="B51" s="30" t="s">
+      <c r="A51" s="34"/>
+      <c r="B51" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="29"/>
-      <c r="B52" s="30" t="s">
+      <c r="A52" s="34"/>
+      <c r="B52" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
     </row>
     <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="21"/>
-      <c r="B53" s="22" t="s">
+      <c r="A53" s="41"/>
+      <c r="B53" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="27" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="34"/>
-      <c r="B55" s="30" t="s">
+      <c r="A55" s="25"/>
+      <c r="B55" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="34"/>
-      <c r="B56" s="30" t="s">
+      <c r="A56" s="25"/>
+      <c r="B56" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="34"/>
-      <c r="B57" s="30" t="s">
+      <c r="A57" s="25"/>
+      <c r="B57" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="34"/>
-      <c r="B58" s="30" t="s">
+      <c r="A58" s="25"/>
+      <c r="B58" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
     </row>
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="27"/>
-      <c r="B59" s="22" t="s">
+      <c r="A59" s="26"/>
+      <c r="B59" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="D18:D21"/>
     <mergeCell ref="C18:C21"/>
@@ -2544,28 +2587,94 @@
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="C34:C37"/>
     <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="D7:D13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="C50:C53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60FE88F-DF65-4734-8138-B55C25C8FBDE}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="31.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="60"/>
+      <c r="B8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="61"/>
+      <c r="B9" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/plan_de_pruebas/plan_de_pruebas_practica_final.xlsx
+++ b/src/test/resources/plan_de_pruebas/plan_de_pruebas_practica_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\candi\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954E902D-8E9B-445B-AA7D-B44D69AF0142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0DDF19-81AD-415A-AFF1-FD863A967DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{FB78C3BD-B29C-4CD2-81F7-7CFC0E94A81C}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FB78C3BD-B29C-4CD2-81F7-7CFC0E94A81C}"/>
   </bookViews>
   <sheets>
     <sheet name="Registro" sheetId="5" r:id="rId1"/>
@@ -48,63 +48,27 @@
     <t>Pasos</t>
   </si>
   <si>
-    <t>Prueba 1</t>
-  </si>
-  <si>
-    <t>Prueba 2</t>
-  </si>
-  <si>
     <t>1. Acceder a ventana registro</t>
   </si>
   <si>
     <t>2. Dejar todos los campos en blanco y pulsar "Continue"</t>
   </si>
   <si>
-    <t>Prueba 3</t>
-  </si>
-  <si>
     <t>2. Cumplimentar el nombre con más de 32 caracteres</t>
   </si>
   <si>
     <t>3. Cumplimentar el resto del formulario correctamente y pulsar "Continue"</t>
   </si>
   <si>
-    <t>Prueba 4</t>
-  </si>
-  <si>
     <t>2. Cumplimentar el apellido con más de 32 caracteres</t>
   </si>
   <si>
     <t>El registro no se realiza correctamente, se muestra el campo que está incorrecto.</t>
   </si>
   <si>
-    <t>Prueba 5</t>
-  </si>
-  <si>
-    <t>Prueba 6</t>
-  </si>
-  <si>
-    <t>Prueba 7</t>
-  </si>
-  <si>
-    <t>Prueba 8</t>
-  </si>
-  <si>
     <t>2. Cumplimentar correo electrónico con formato inválido</t>
   </si>
   <si>
-    <t>Prueba 9</t>
-  </si>
-  <si>
-    <t>Prueba 10</t>
-  </si>
-  <si>
-    <t>Prueba 11</t>
-  </si>
-  <si>
-    <t>Prueba 12</t>
-  </si>
-  <si>
     <t>2. Cumplimentar password confirm con una contraseña distinta a la anterior</t>
   </si>
   <si>
@@ -129,9 +93,6 @@
     <t>2. Cumplimentar teléfono con formato inválido - caractéres no válidos (símbolos), longitud válida</t>
   </si>
   <si>
-    <t>Prueba 13</t>
-  </si>
-  <si>
     <t>2. Cumplimentar password con menos de 4 caracteres</t>
   </si>
   <si>
@@ -210,24 +171,9 @@
     <t>El usuario se loga correctamente.</t>
   </si>
   <si>
-    <t>Prueba 14</t>
-  </si>
-  <si>
-    <t>Prueba 15</t>
-  </si>
-  <si>
-    <t>Prueba 16</t>
-  </si>
-  <si>
-    <t>Prueba 17</t>
-  </si>
-  <si>
     <t>El usuario se loga correctamente y se carga la página my account.</t>
   </si>
   <si>
-    <t>Prueba 18</t>
-  </si>
-  <si>
     <t>Se visualiza la página de recuperación de contraseña.</t>
   </si>
   <si>
@@ -240,18 +186,12 @@
     <t>El usuario no se loga. Aparece un mensaje de error.</t>
   </si>
   <si>
-    <t>Prueba 19</t>
-  </si>
-  <si>
     <t>Acceder a Phones &amp; PDAs.</t>
   </si>
   <si>
     <t>Añadir un producto al carrito.</t>
   </si>
   <si>
-    <t>Prueba 20</t>
-  </si>
-  <si>
     <t>Comprobar el carrito.</t>
   </si>
   <si>
@@ -264,33 +204,12 @@
     <t>Aparece 1 item en el carrito.</t>
   </si>
   <si>
-    <t>Prueba 21</t>
-  </si>
-  <si>
     <t>Aparece el item x2 identificado correctamente. El precio es correcto.</t>
   </si>
   <si>
     <t>Aparecen 2 items identificados correctamente. El precio es correcto.</t>
   </si>
   <si>
-    <t>Prueba 22</t>
-  </si>
-  <si>
-    <t>Prueba 23</t>
-  </si>
-  <si>
-    <t>Prueba 24</t>
-  </si>
-  <si>
-    <t>Prueba 25</t>
-  </si>
-  <si>
-    <t>Prueba 26</t>
-  </si>
-  <si>
-    <t>Prueba 27</t>
-  </si>
-  <si>
     <t>El producto se elimina correctamente.</t>
   </si>
   <si>
@@ -351,12 +270,6 @@
     <t>Se muestra warning de que debemos aceptar terminos y condiciones y no podemos avanzar</t>
   </si>
   <si>
-    <t>Prueba 28</t>
-  </si>
-  <si>
-    <t>Prueba 29</t>
-  </si>
-  <si>
     <t>step2: logarse con mail incorrecto</t>
   </si>
   <si>
@@ -375,38 +288,159 @@
     <t>step2: utilizar telefono con más de 32 caracteres</t>
   </si>
   <si>
-    <t>Prueba 30</t>
-  </si>
-  <si>
-    <t>Prueba 31</t>
-  </si>
-  <si>
     <t>step2: utilizar ciudad con menos de 2 caracteres</t>
   </si>
   <si>
     <t>step2: utilizar ciudad con más de 128 caracteres</t>
   </si>
   <si>
-    <t>Prueba 32</t>
-  </si>
-  <si>
-    <t>Prueba 33</t>
-  </si>
-  <si>
-    <t>Prueba 34</t>
-  </si>
-  <si>
     <t>Pulsar el botón logout</t>
   </si>
   <si>
     <t>El usuario se desloga correctamente.</t>
+  </si>
+  <si>
+    <t>Prueba 1
+Registro OK</t>
+  </si>
+  <si>
+    <t>Prueba 2
+Campos en blanco</t>
+  </si>
+  <si>
+    <t>Prueba 3
+Nombre &gt; 32 char</t>
+  </si>
+  <si>
+    <t>Prueba 4
+Apellido &gt; 32 char</t>
+  </si>
+  <si>
+    <t>Prueba 5
+Email inválido</t>
+  </si>
+  <si>
+    <t>Prueba 6
+Teléfono &lt; 3 num</t>
+  </si>
+  <si>
+    <t>Prueba 7
+Teléfono &gt; 32 num</t>
+  </si>
+  <si>
+    <t>Prueba 8
+Teléfono con letras</t>
+  </si>
+  <si>
+    <t>Prueba 9
+Teléfono con símbolos</t>
+  </si>
+  <si>
+    <t>Prueba 10
+Password &lt; 4 caracteres</t>
+  </si>
+  <si>
+    <t>Prueba 11
+password &gt; 20 caracteres</t>
+  </si>
+  <si>
+    <t>Prueba 12
+CnfirmPassword != password</t>
+  </si>
+  <si>
+    <t>Prueba 13
+No aceptar políticas privacidad</t>
+  </si>
+  <si>
+    <t>Prueba 14
+Botón registrar</t>
+  </si>
+  <si>
+    <t>Prueba 15
+Login ok</t>
+  </si>
+  <si>
+    <t>Prueba 16
+Email incorrecto</t>
+  </si>
+  <si>
+    <t>Prueba 17
+Password incorrecta</t>
+  </si>
+  <si>
+    <t>Prueba 18
+Botón contraseña olvidada</t>
+  </si>
+  <si>
+    <t>Prueba 19
+Añadir 1 item</t>
+  </si>
+  <si>
+    <t>Prueba 20
+Añadir 2 items. Info correcta</t>
+  </si>
+  <si>
+    <t>Prueba 21
+Añadir 1 item y eliminarlo</t>
+  </si>
+  <si>
+    <t>Prueba 22
+Checkout ok</t>
+  </si>
+  <si>
+    <t>Prueba 23
+Campos vacíos</t>
+  </si>
+  <si>
+    <t>Prueba 24
+Email formato inválido</t>
+  </si>
+  <si>
+    <t>Prueba 25
+Dirección &lt; 3 char</t>
+  </si>
+  <si>
+    <t>Prueba 26
+Dirección &gt; 128 char</t>
+  </si>
+  <si>
+    <t>Prueba 27
+Nombre &gt; 32 char</t>
+  </si>
+  <si>
+    <t>Prueba 28
+Teléfono &lt; 3 dígitos</t>
+  </si>
+  <si>
+    <t>Prueba 29
+Teléfono &gt; 32 dígitos</t>
+  </si>
+  <si>
+    <t>Prueba 30
+Teléfono formato inválido</t>
+  </si>
+  <si>
+    <t>Prueba 31
+Ciudad &lt; 2 char</t>
+  </si>
+  <si>
+    <t>Prueba 32
+Ciudad &gt; 128 char</t>
+  </si>
+  <si>
+    <t>Prueba 33 
+No aceptar términos y condiciones</t>
+  </si>
+  <si>
+    <t>Prueba 34
+Logout ok</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,6 +473,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -712,7 +754,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -757,77 +799,72 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -835,12 +872,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -850,18 +881,14 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -869,8 +896,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1196,15 +1242,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1080DE40-1A62-4D5E-99EC-EF485A764F0C}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.26953125" customWidth="1"/>
     <col min="2" max="2" width="98.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="95.6328125" customWidth="1"/>
     <col min="4" max="4" width="75.26953125" bestFit="1" customWidth="1"/>
@@ -1214,17 +1260,17 @@
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="15" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -1239,399 +1285,400 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="33"/>
+      <c r="B8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="43"/>
+      <c r="B10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="44"/>
+      <c r="B12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="41"/>
-      <c r="B8" s="9" t="s">
+      <c r="C12" s="39"/>
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="33"/>
+      <c r="B13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="29"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="29"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="26"/>
-      <c r="B10" s="9" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="45"/>
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="43"/>
+      <c r="B16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="29"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="27" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="29"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="44"/>
+      <c r="B18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="D18" s="28"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="33"/>
+      <c r="B19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="29"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="45"/>
+      <c r="B21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="39"/>
+      <c r="D21" s="28"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="43"/>
+      <c r="B22" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="29"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="44"/>
+      <c r="B24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="28"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="44"/>
+      <c r="B25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="28"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="34"/>
+      <c r="B27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="31"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="35"/>
+      <c r="B28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="32"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="34"/>
+      <c r="B30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="31"/>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="35"/>
+      <c r="B31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="38"/>
+      <c r="D31" s="32"/>
+    </row>
+    <row r="32" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="45"/>
+      <c r="B33" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="43"/>
+      <c r="B34" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="34"/>
+      <c r="B36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="37"/>
+      <c r="D36" s="31"/>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="35"/>
+      <c r="B37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="32"/>
+    </row>
+    <row r="38" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="45"/>
+      <c r="B39" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="39"/>
+      <c r="D39" s="28"/>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="43"/>
+      <c r="B40" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="29"/>
+    </row>
+    <row r="41" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="45"/>
+      <c r="B42" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="39"/>
+      <c r="D42" s="28"/>
+    </row>
+    <row r="43" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="43"/>
+      <c r="B43" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="34"/>
-      <c r="B12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="39"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="41"/>
-      <c r="B13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="40"/>
-    </row>
-    <row r="14" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="25"/>
-      <c r="B15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="39"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="26"/>
-      <c r="B16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="40"/>
-    </row>
-    <row r="17" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="34"/>
-      <c r="B18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="39"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="41"/>
-      <c r="B19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="40"/>
-    </row>
-    <row r="20" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="25"/>
-      <c r="B21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="39"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="26"/>
-      <c r="B22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="40"/>
-    </row>
-    <row r="23" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="34"/>
-      <c r="B24" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="39"/>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="34"/>
-      <c r="B25" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="39"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="36"/>
-      <c r="B27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="46"/>
-    </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="37"/>
-      <c r="B28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="47"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="36"/>
-      <c r="B30" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="46"/>
-    </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="37"/>
-      <c r="B31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="47"/>
-    </row>
-    <row r="32" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="25"/>
-      <c r="B33" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="26"/>
-      <c r="B34" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="45" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="36"/>
-      <c r="B36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="46"/>
-    </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="37"/>
-      <c r="B37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="47"/>
-    </row>
-    <row r="38" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="25"/>
-      <c r="B39" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="39"/>
-    </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="26"/>
-      <c r="B40" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="40"/>
-    </row>
-    <row r="41" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="25"/>
-      <c r="B42" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="39"/>
-    </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="26"/>
-      <c r="B43" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="40"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="29"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A26:A28"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A29:A31"/>
@@ -1647,17 +1694,19 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1670,12 +1719,12 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D10"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="92.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61.453125" bestFit="1" customWidth="1"/>
@@ -1685,17 +1734,17 @@
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="15" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -1710,124 +1759,130 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="33" t="s">
-        <v>57</v>
+      <c r="A7" s="57" t="s">
+        <v>100</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>51</v>
+        <v>36</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="41"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="49"/>
+        <v>37</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="48"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="24" t="s">
-        <v>58</v>
+      <c r="A9" s="58" t="s">
+        <v>101</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="43"/>
+      <c r="B10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="48"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="26"/>
-      <c r="B10" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="49"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="16" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="33"/>
+      <c r="B12" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="50"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="41"/>
-      <c r="B12" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="53"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="26"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="53"/>
+        <v>41</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="50"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="50" t="s">
-        <v>62</v>
+      <c r="A15" s="61" t="s">
+        <v>104</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>65</v>
+        <v>36</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="51"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="49"/>
+        <v>46</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="48"/>
     </row>
     <row r="27" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
@@ -1837,12 +1892,6 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1854,12 +1903,12 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D15"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.90625" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="63.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.90625" bestFit="1" customWidth="1"/>
@@ -1868,18 +1917,18 @@
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="15" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -1894,98 +1943,98 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="54" t="s">
-        <v>67</v>
+      <c r="A7" s="62" t="s">
+        <v>105</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>74</v>
+        <v>49</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="54"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+        <v>50</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="51"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+        <v>51</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="54" t="s">
-        <v>70</v>
+      <c r="A10" s="62" t="s">
+        <v>106</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>77</v>
+        <v>49</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="54"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
+        <v>52</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="51"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+        <v>51</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="54" t="s">
-        <v>75</v>
+      <c r="A13" s="62" t="s">
+        <v>107</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>84</v>
+        <v>49</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="54"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
+        <v>58</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="51"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
+        <v>59</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2009,13 +2058,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80BA391-9F64-40BD-8C55-E840013F4859}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:D6"/>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
     <col min="2" max="2" width="83.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="86" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.90625" bestFit="1" customWidth="1"/>
@@ -2024,18 +2073,18 @@
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="15" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -2050,527 +2099,507 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="45"/>
+      <c r="B8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="45"/>
+      <c r="B9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="45"/>
+      <c r="B10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="45"/>
+      <c r="B11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="45"/>
+      <c r="B12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="43"/>
+      <c r="B13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="52"/>
+      <c r="B15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="52"/>
+      <c r="B16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="53"/>
+      <c r="B17" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="44"/>
+      <c r="B19" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="44"/>
+      <c r="B20" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="33"/>
+      <c r="B21" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="44"/>
+      <c r="B23" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="44"/>
+      <c r="B24" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="33"/>
+      <c r="B25" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="44"/>
+      <c r="B27" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="44"/>
+      <c r="B28" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="25"/>
-      <c r="B8" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="25"/>
-      <c r="B9" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="25"/>
-      <c r="B10" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="25"/>
-      <c r="B11" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="25"/>
-      <c r="B12" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="26"/>
-      <c r="B13" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="55" t="s">
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="33"/>
+      <c r="B29" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="44"/>
+      <c r="B31" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="44"/>
+      <c r="B32" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="56"/>
-      <c r="B15" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="56"/>
-      <c r="B16" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="57"/>
-      <c r="B17" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="33" t="s">
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="33"/>
+      <c r="B33" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="44"/>
+      <c r="B35" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="44"/>
+      <c r="B36" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="34"/>
-      <c r="B19" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="34"/>
-      <c r="B20" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="41"/>
-      <c r="B21" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="33" t="s">
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="33"/>
+      <c r="B37" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="44"/>
+      <c r="B39" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="44"/>
+      <c r="B40" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="34"/>
-      <c r="B23" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="34"/>
-      <c r="B24" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-    </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="41"/>
-      <c r="B25" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="33" t="s">
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+    </row>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="33"/>
+      <c r="B41" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="34"/>
+      <c r="B43" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="34"/>
+      <c r="B44" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="34"/>
-      <c r="B27" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="34"/>
-      <c r="B28" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-    </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="41"/>
-      <c r="B29" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="33" t="s">
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+    </row>
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="35"/>
+      <c r="B45" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="44"/>
+      <c r="B47" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="44"/>
+      <c r="B48" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+    </row>
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="33"/>
+      <c r="B49" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="44"/>
+      <c r="B51" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="44"/>
+      <c r="B52" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="34"/>
-      <c r="B31" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="34"/>
-      <c r="B32" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-    </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="41"/>
-      <c r="B33" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" s="21" t="s">
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+    </row>
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="33"/>
+      <c r="B53" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="45"/>
+      <c r="B55" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="45"/>
+      <c r="B56" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="34"/>
-      <c r="B35" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="34"/>
-      <c r="B36" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-    </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="41"/>
-      <c r="B37" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="34"/>
-      <c r="B39" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="34"/>
-      <c r="B40" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-    </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="41"/>
-      <c r="B41" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="36"/>
-      <c r="B43" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="36"/>
-      <c r="B44" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-    </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="37"/>
-      <c r="B45" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="34"/>
-      <c r="B47" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="34"/>
-      <c r="B48" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-    </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="41"/>
-      <c r="B49" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="34"/>
-      <c r="B51" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="34"/>
-      <c r="B52" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-    </row>
-    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="41"/>
-      <c r="B53" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="25"/>
-      <c r="B55" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="25"/>
-      <c r="B56" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="25"/>
+      <c r="A57" s="45"/>
       <c r="B57" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
+        <v>60</v>
+      </c>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="25"/>
+      <c r="A58" s="45"/>
       <c r="B58" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
+        <v>61</v>
+      </c>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
     </row>
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="26"/>
+      <c r="A59" s="43"/>
       <c r="B59" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
+        <v>75</v>
+      </c>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="D7:D13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="D18:D21"/>
     <mergeCell ref="C18:C21"/>
@@ -2587,6 +2616,26 @@
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="C34:C37"/>
     <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="C50:C53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2597,8 +2646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60FE88F-DF65-4734-8138-B55C25C8FBDE}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2611,63 +2660,63 @@
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="15" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="58" t="s">
-        <v>33</v>
+      <c r="D6" s="24" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="59" t="s">
-        <v>118</v>
+      <c r="A7" s="64" t="s">
+        <v>120</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>120</v>
+        <v>35</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="60"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
+        <v>39</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="61"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+        <v>85</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
